--- a/CompuCell3D/TcellDynabeadSystem/TcellsDynabeadSystem_DBTracker/DiffusionResults.xlsx
+++ b/CompuCell3D/TcellDynabeadSystem/TcellsDynabeadSystem_DBTracker/DiffusionResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uab-my.sharepoint.com/personal/1597008_uab_cat/Documents/Escritorio/uab/5/TFGJordi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="651" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF33B157-09F4-44DA-9B05-04C2B296F934}"/>
+  <xr:revisionPtr revIDLastSave="833" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A4CEA2-F758-41C8-8DD9-2D305A43EB83}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>Real data</t>
   </si>
@@ -278,24 +278,54 @@
   <si>
     <t>end idx</t>
   </si>
+  <si>
+    <t>Truncated</t>
+  </si>
+  <si>
+    <t>Truncated 1</t>
+  </si>
+  <si>
+    <t>Truncated 2</t>
+  </si>
+  <si>
+    <t>Truncated 3</t>
+  </si>
+  <si>
+    <t>Truncated 4</t>
+  </si>
+  <si>
+    <t>Truncated 5</t>
+  </si>
+  <si>
+    <t>Truncated 6</t>
+  </si>
+  <si>
+    <t>Truncated 7</t>
+  </si>
+  <si>
+    <t>Truncated 8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000000000000"/>
     <numFmt numFmtId="169" formatCode="0.00000000000000000"/>
-    <numFmt numFmtId="173" formatCode="#,##0.000000000000"/>
-    <numFmt numFmtId="175" formatCode="#,##0.0000000000000000"/>
-    <numFmt numFmtId="176" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="177" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000000000000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000000000000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="179" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="182" formatCode="0.0000000000"/>
+    <numFmt numFmtId="189" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +378,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -387,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -575,11 +611,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -679,19 +755,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="189" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +805,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>899257</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>102263</xdr:rowOff>
+      <xdr:rowOff>102264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -791,7 +874,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>127430</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>102430</xdr:rowOff>
+      <xdr:rowOff>102431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -857,10 +940,10 @@
       <xdr:rowOff>33534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>147313</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>26784</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>113651</xdr:rowOff>
+      <xdr:rowOff>113652</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -929,7 +1012,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>154725</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>108936</xdr:rowOff>
+      <xdr:rowOff>108937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -998,7 +1081,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>907416</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>105365</xdr:rowOff>
+      <xdr:rowOff>105366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1067,7 +1150,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>161899</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>101993</xdr:rowOff>
+      <xdr:rowOff>101994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1133,10 +1216,10 @@
       <xdr:rowOff>30604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>293145</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>938351</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>109645</xdr:rowOff>
+      <xdr:rowOff>109646</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1205,7 +1288,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>911069</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>109644</xdr:rowOff>
+      <xdr:rowOff>109645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1274,7 +1357,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>147782</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>101993</xdr:rowOff>
+      <xdr:rowOff>101994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1334,16 +1417,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>334103</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1043809</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>23518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>483350</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>623424</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>130736</xdr:rowOff>
+      <xdr:rowOff>130737</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1373,7 +1456,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15779544" y="5439694"/>
+          <a:off x="15770206" y="5439694"/>
           <a:ext cx="3212188" cy="2161630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1409,10 +1492,10 @@
       <xdr:rowOff>29026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>166826</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>46297</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>109415</xdr:rowOff>
+      <xdr:rowOff>109416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1450,6 +1533,558 @@
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28015</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>905533</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB835AA5-C898-76E2-F696-8147C44A3778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17621250" y="2829485"/>
+          <a:ext cx="3172552" cy="2134800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>37354</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1092</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3093004A-4D7B-ED9E-E96E-55E4A67FCDA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22225001" y="2820147"/>
+          <a:ext cx="3172552" cy="2134800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>18677</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>896195</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982DB240-F0ED-0A11-16C5-B62E815EAECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26800736" y="2829485"/>
+          <a:ext cx="3172552" cy="2134800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>44302</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>29536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>320247</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>37825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83AA2D32-2C81-3067-2604-61EDFC7B8F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="31927209" y="2746745"/>
+          <a:ext cx="3347573" cy="2134800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>29535</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>155334</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>37823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6645BC47-7986-E979-F392-FD8791C52608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20940233" y="5198139"/>
+          <a:ext cx="3345101" cy="2134800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>29535</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>158629</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>37824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8530E6B4-54F9-5560-00EF-AD6B40ED68B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="25843023" y="5198140"/>
+          <a:ext cx="3348397" cy="2134800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>44303</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>175547</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>37824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C1CDEB-8E71-A25A-E075-A0C19AACD08E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="30612908" y="5198140"/>
+          <a:ext cx="3350546" cy="2134800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>33004</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>20888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>31733</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>132460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999BD29C-489C-05C9-0603-3106AA7BCF87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20845129" y="8069513"/>
+          <a:ext cx="3205479" cy="2119760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1931,10 +2566,10 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2667,19 +3302,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360A7FF9-22EA-4CB5-9127-590F240F56E9}">
-  <dimension ref="B2:M43"/>
+  <dimension ref="B2:AJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="36" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" customWidth="1"/>
+    <col min="16" max="16" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.35">
       <c r="C2" s="33" t="s">
         <v>62</v>
       </c>
@@ -2704,243 +3349,486 @@
       <c r="J2" s="33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B3" s="33">
         <v>1</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <v>24</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>5</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="36">
         <v>1000000</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="37">
         <v>5.5419374807971697E-2</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="38">
         <v>39002.5732875658</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="39">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="35">
         <v>1006</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="35">
         <v>7281</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L3" s="33">
+        <v>1</v>
+      </c>
+      <c r="M3" s="35">
+        <v>24</v>
+      </c>
+      <c r="N3" s="35">
+        <v>5</v>
+      </c>
+      <c r="O3" s="36">
+        <v>1000000</v>
+      </c>
+      <c r="P3" s="37">
+        <v>5.7978097978893799E-2</v>
+      </c>
+      <c r="Q3" s="47">
+        <v>38239.495511990499</v>
+      </c>
+      <c r="R3" s="48">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="S3" s="35">
+        <v>942</v>
+      </c>
+      <c r="T3" s="35">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B4" s="33">
         <v>2</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>24</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>5</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>1000000</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="40">
         <v>5.4223534637638002E-2</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="38">
         <v>13419.194407676399</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="35">
         <v>0.997</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <v>749</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <v>9749</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L4" s="33">
+        <v>2</v>
+      </c>
+      <c r="M4" s="35">
+        <v>24</v>
+      </c>
+      <c r="N4" s="35">
+        <v>5</v>
+      </c>
+      <c r="O4" s="36">
+        <v>1000000</v>
+      </c>
+      <c r="P4" s="40">
+        <v>5.1507829358453203E-2</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>14020.9319451874</v>
+      </c>
+      <c r="R4" s="35">
+        <v>0.998</v>
+      </c>
+      <c r="S4" s="35">
+        <v>960</v>
+      </c>
+      <c r="T4" s="35">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B5" s="33">
         <v>3</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>24</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>5</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>1000000</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="40">
         <v>6.4802648279055797E-2</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <v>30278.104121927699</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="35">
         <v>0.99199999999999999</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="35">
         <v>1737</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <v>4737</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L5" s="33">
+        <v>3</v>
+      </c>
+      <c r="M5" s="35">
+        <v>24</v>
+      </c>
+      <c r="N5" s="35">
+        <v>5</v>
+      </c>
+      <c r="O5" s="36">
+        <v>1000000</v>
+      </c>
+      <c r="P5" s="40">
+        <v>7.1338803415033403E-2</v>
+      </c>
+      <c r="Q5" s="38">
+        <v>27769.2190179514</v>
+      </c>
+      <c r="R5" s="35">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="S5" s="35">
+        <v>1000</v>
+      </c>
+      <c r="T5" s="35">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B6" s="33">
         <v>4</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>1</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>5</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>1000000</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <v>2.7986048511924901E-2</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>89.679749125476405</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>0</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>3000</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L6" s="33">
+        <v>4</v>
+      </c>
+      <c r="M6" s="35">
+        <v>1</v>
+      </c>
+      <c r="N6" s="35">
+        <v>5</v>
+      </c>
+      <c r="O6" s="36">
+        <v>1000000</v>
+      </c>
+      <c r="P6" s="40">
+        <v>2.1055253622780601E-2</v>
+      </c>
+      <c r="Q6" s="41">
+        <v>904.87906898339395</v>
+      </c>
+      <c r="R6" s="35">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="S6" s="35">
+        <v>0</v>
+      </c>
+      <c r="T6" s="35">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B7" s="33">
         <v>5</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>1</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>5</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>1000000</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <v>0.20428409263803399</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <v>12569.070379953901</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <v>132</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="35">
         <v>3636</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L7" s="33">
+        <v>5</v>
+      </c>
+      <c r="M7" s="35">
+        <v>1</v>
+      </c>
+      <c r="N7" s="35">
+        <v>5</v>
+      </c>
+      <c r="O7" s="36">
+        <v>1000000</v>
+      </c>
+      <c r="P7" s="42">
+        <v>0.19786629285077001</v>
+      </c>
+      <c r="Q7" s="38">
+        <v>12912.9714244885</v>
+      </c>
+      <c r="R7" s="35">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="S7" s="35">
+        <v>2</v>
+      </c>
+      <c r="T7" s="35">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B8" s="33">
         <v>6</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>1</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>250000</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="43">
         <v>1.26590736925518E-3</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="41">
         <v>-14.184435860929501</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <v>0.98799999999999999</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <v>0</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <v>2349</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L8" s="33">
+        <v>6</v>
+      </c>
+      <c r="M8" s="35">
+        <v>1</v>
+      </c>
+      <c r="N8" s="35">
+        <v>100</v>
+      </c>
+      <c r="O8" s="36">
+        <v>250000</v>
+      </c>
+      <c r="P8" s="43">
+        <v>1.26950118854726E-3</v>
+      </c>
+      <c r="Q8" s="46">
+        <v>-16.9814433260245</v>
+      </c>
+      <c r="R8" s="35">
+        <v>0.97</v>
+      </c>
+      <c r="S8" s="35">
+        <v>50</v>
+      </c>
+      <c r="T8" s="35">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B9" s="33">
         <v>7</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>1</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <v>20</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <v>250000</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <v>4.2316099824134201E-2</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <v>-323.30779268330502</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <v>0.99399999999999999</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>0</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L9" s="33">
+        <v>7</v>
+      </c>
+      <c r="M9" s="35">
+        <v>1</v>
+      </c>
+      <c r="N9" s="35">
+        <v>20</v>
+      </c>
+      <c r="O9" s="36">
+        <v>250000</v>
+      </c>
+      <c r="P9" s="40">
+        <v>3.9918239438172798E-2</v>
+      </c>
+      <c r="Q9" s="46">
+        <v>-183.577870258117</v>
+      </c>
+      <c r="R9" s="35">
+        <v>0.995</v>
+      </c>
+      <c r="S9" s="35">
+        <v>0</v>
+      </c>
+      <c r="T9" s="35">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B10" s="33">
         <v>8</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>24</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <v>250000</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <v>7.6681655662361806E-2</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="38">
         <v>14436.1689117639</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <v>0.89600000000000002</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <v>120</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <v>2500</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L10" s="33">
+        <v>8</v>
+      </c>
+      <c r="M10" s="35">
+        <v>24</v>
+      </c>
+      <c r="N10" s="35">
+        <v>20</v>
+      </c>
+      <c r="O10" s="36">
+        <v>250000</v>
+      </c>
+      <c r="P10" s="40">
+        <v>0.15502033540090199</v>
+      </c>
+      <c r="Q10" s="38">
+        <v>10585.0992253188</v>
+      </c>
+      <c r="R10" s="35">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="S10" s="35">
+        <v>155</v>
+      </c>
+      <c r="T10" s="35">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.35">
       <c r="K13" s="34"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B16" s="33">
         <v>1</v>
       </c>
@@ -2950,16 +3838,117 @@
       <c r="M16" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="Q16" s="49"/>
+      <c r="R16" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="X16" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD16" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ16" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Q17" s="49"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Q18" s="49"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Q19" s="49"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Q20" s="49"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Q21" s="49"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Q22" s="49"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Q23" s="49"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Q24" s="49"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Q25" s="49"/>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Q26" s="49"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="Q27" s="49"/>
+    </row>
+    <row r="28" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q28" s="49"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+    </row>
+    <row r="29" spans="2:34" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="T29" s="52"/>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B30" s="33">
         <v>4</v>
       </c>
       <c r="J30" s="33">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="T30" s="49"/>
+      <c r="V30" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB30" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH30" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="T31" s="49"/>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="T32" s="49"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T33" s="49"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T34" s="49"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T35" s="49"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T36" s="49"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T37" s="49"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T38" s="49"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T39" s="49"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T40" s="49"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T41" s="49"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T42" s="49"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B43" s="33">
         <v>6</v>
       </c>
@@ -2969,8 +3958,55 @@
       <c r="M43" s="33">
         <v>8</v>
       </c>
+      <c r="T43" s="49"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T44" s="49"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T45" s="49"/>
+      <c r="V45" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T46" s="49"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T47" s="49"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="T48" s="49"/>
+    </row>
+    <row r="49" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T49" s="49"/>
+    </row>
+    <row r="50" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T50" s="49"/>
+    </row>
+    <row r="51" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T51" s="49"/>
+    </row>
+    <row r="52" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T52" s="49"/>
+    </row>
+    <row r="53" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T53" s="49"/>
+    </row>
+    <row r="54" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T54" s="49"/>
+    </row>
+    <row r="55" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T55" s="49"/>
+    </row>
+    <row r="56" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T56" s="49"/>
+    </row>
+    <row r="57" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T57" s="49"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
